--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.881900000000005</v>
+        <v>-7.904600000000007</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.227</v>
+        <v>-13.4575</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.871199999999998</v>
+        <v>-8.289500000000002</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.345999999999995</v>
+        <v>-8.520699999999994</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.02409999999999</v>
+        <v>-12.01449999999998</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.40630000000001</v>
+        <v>-11.3878</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.118799999999998</v>
+        <v>-7.9908</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.665099999999999</v>
+        <v>-7.169700000000001</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.518900000000001</v>
+        <v>-7.557200000000002</v>
       </c>
     </row>
     <row r="27">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.27269999999999</v>
+        <v>-12.0777</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.193099999999999</v>
+        <v>-8.111600000000001</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.74860000000001</v>
+        <v>-11.872</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.384499999999997</v>
+        <v>-8.311199999999996</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.999000000000001</v>
+        <v>-8.126300000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.7864</v>
+        <v>-7.8411</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.935900000000005</v>
+        <v>-7.992800000000005</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.073099999999998</v>
+        <v>-7.018899999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.141599999999998</v>
+        <v>-7.426399999999994</v>
       </c>
     </row>
     <row r="68">
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.64219999999999</v>
+        <v>-10.49249999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.9217</v>
+        <v>-12.59020000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.9049</v>
+        <v>-11.94399999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.1928</v>
+        <v>-8.126200000000004</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.810900000000001</v>
+        <v>-7.753600000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.95919999999999</v>
+        <v>-11.9884</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.84659999999999</v>
+        <v>-13.2163</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.066</v>
+        <v>-10.1701</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.303100000000001</v>
+        <v>-8.137500000000006</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.803199999999996</v>
+        <v>-7.702600000000003</v>
       </c>
     </row>
     <row r="105">
